--- a/biology/Botanique/Uniforme_de_l'Office_national_des_forêts/Uniforme_de_l'Office_national_des_forêts.xlsx
+++ b/biology/Botanique/Uniforme_de_l'Office_national_des_forêts/Uniforme_de_l'Office_national_des_forêts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les corps techniques de l'Office national des forêts sont astreints au port de l'uniforme réglementaire. Le personnel contractuel (non fonctionnaire) ne dispose que de la Tenue numéro trois (tenue de terrain) portée sans grades.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eaux et Forêts ont quitté les Domaines, pour le ministère des Finances en 1820, qui gérait déjà deux autres services paramilitaires : les Douanes et la Trésorerie et Postes aux armées. Les personnels de ces trois services furent dotés d’uniformes de drap « vert finance » qui fut longtemps l’appellation officielle de la teinte des tenues forestières. Les Douaniers conserveront d’ailleurs leur tunique ou dolman vert jusqu’en 1905. Ils adopteront ensuite la vareuse bleue que nous leur connaissons aujourd’hui.
 Les forestiers ont été rattachés au ministère de l’Agriculture, en 1877. Leurs uniformes se sont, depuis l’origine, inspirés de ceux de l’Armée, ce qui leur a permis de continuer à les porter, lors de leurs fréquentes périodes de service sous les drapeaux, prévues par les textes et aussi, bien sûr, pendant les conflits, notamment dans les compagnies de guides-forestiers ou dans le Corps des chasseurs forestiers. Cette « militarisation » qui sera renforcée à la fin du XIXe siècle, est à replacer dans le contexte de l’époque, littéralement hantée par le désir de « revanche », à la suite du désastre de la guerre de 1870.
 Cette volonté de conformité militaire, transparaît clairement à l’examen de la définition des effets des tenues forestières, reprise par les règlements d’époque : Quelques exemples : « Dès 1840 : habit, modèle de l’infanterie légère… Puis 1870 : jaquette-veston, forme de la garde mobile… 1876 : tunique, modèle de l’infanterie… 1879 : capote-manteau d’infanterie… 1925 : vareuse, modèle de l’armée… Mais en 1972, encore : imperméable, type armée, tenue de travail : treillis, type militaire, etc. »
-Chez les forestiers, à partir de l'entre-deux guerres, les unités de sapeurs-forestiers ont conservé un fonctionnement de type militaire en étant intégrées lors de la mobilisation nationale dans l'armée. En matière de signes distinctifs de grades, l’administration des Eaux et Forêts est alignée sur les usages militaires, à la manière de son administration sœur : les Douanes. L'atomisation de l'Administration en l’Office national des forêts et aux autres offices lors de la réforme Edgard Pisani de 1964 n’a pas modifié cet usage[1].
+Chez les forestiers, à partir de l'entre-deux guerres, les unités de sapeurs-forestiers ont conservé un fonctionnement de type militaire en étant intégrées lors de la mobilisation nationale dans l'armée. En matière de signes distinctifs de grades, l’administration des Eaux et Forêts est alignée sur les usages militaires, à la manière de son administration sœur : les Douanes. L'atomisation de l'Administration en l’Office national des forêts et aux autres offices lors de la réforme Edgard Pisani de 1964 n’a pas modifié cet usage.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Uniforme[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'uniforme des ingénieurs de l'agriculture et de l'environnement affectés à l'Office national des forêts est composé de trois tenues :
 1. Tenue numéro un, dite tenue de sortie de ville ou de cérémonie, comprenant :
@@ -553,7 +569,7 @@
 vareuse droite, de teinte « vert forestier », à cors de chasse brodés et boutons « argent » ;
 pantalon, de teinte « gris bleuté », à passepoil ou double bande de teinte « vert forestier » ;
 képi, de teinte « vert forestier », à cor de chasse brodé et fausse jugulaire « argent ».
-Cette tenue est portée avec un insigne argenté sur patte de cuir[3], des galons sur épaulettes rigides, une chemise blanche, une cravate noire, des socquettes noires, des chaussures basses noires et, lors des cérémonies, des gants de coton blanc.
+Cette tenue est portée avec un insigne argenté sur patte de cuir, des galons sur épaulettes rigides, une chemise blanche, une cravate noire, des socquettes noires, des chaussures basses noires et, lors des cérémonies, des gants de coton blanc.
 Pour les personnels féminins :
 vareuse croisée, de teinte « vert forestier », à cors de chasse brodés et boutons « argent » ;
 pantalon ou jupe, de teinte « gris bleuté », à passepoil et double bande de teinte « vert forestier » ;
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Les grades</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les insignes de grades, pour le corps des ingénieurs de l'agriculture et de l'environnement affectés à l'Office national des forêts, sont des galons, tissés trait côtelé « argent » ou « or », portés sur des épaulettes rigides de teinte « gris bleuté » (tenue numéro un), ou sur des fourreaux souples, de teinte « gris bleuté », à cor de chasse brodé « argent » (tenues numéros deux et trois).
 En ce qui concerne les autres corps, les insignes de grades sont identiques, mais sur des épaulettes rigides ou des fourreaux souples de teinte « vert forestier », selon les définitions suivantes :
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,13 +645,91 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1965-1989
+          <t>1965-1989</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Écusson d'épaule brodé et utilisé dans le department du Var par les agents de l'O.N.F.
 			Écusson de commissionnement au titre des Eaux et Forêts porté sur la poitrine des tenues de terrain de l'O.N.F.
-1989-1997[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anciens uniformes et équipements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1989-1997[5]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Écusson d'épaule brodé sur simili daim cousu à 6 cm en dessous de la couture d'épaule gauche et porté par les fonctionnaires de l'O.N.F à partir de 1989.
 			Forestier en tenue de travail (pantalon de travail vert jungle et pull over de montagne beige foncé) sur la Flèche de la Gracieuse en 1995.
-1997-2007[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anciens uniformes et équipements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1997-2007[6]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Cor de chasse brodé en canetille argentée cousu sur le col de la vareuse droite "vert forestier" (vestiaire A) de l'Office national des forêts en 2006.
 			Technicien et Ingénieur de l'Office national des forêts en tenue du vestiaire A (vareuse et kepi vert, pantalon gris bleuté) encadrant des Ouvriers Forestiers Rapatriés d'Afrique du Nord (OFRAN) lors d'une cérémonie en 2003.
 			Employés de l'Office national des forêts en vestiaire B (chemise verte, cravate vert forestier et pantalon à pince beige) devant le palais de justice.
@@ -646,7 +742,43 @@
 			Ingénieur des Travaux des Eaux et Forêts (capitaine) en tenue de Défense des Forêts Contre l'Incendie (DFCI, polo vert à bande institutionnelle jonquille, pantalon de feu vert sapin) en 2007.
 			Étui de revolver contenant un Smith &amp; Wesson Modèle 10 ou 13 HB calibre .38 Special ou .357 Magnum vers 2003 à l'Office national des forêts.
 			Révolver Smith &amp; Wesson Modèle 10 ou 13 HB calibre .38 Special ou .357 Magnum utilisé à l'Office national des forêts avec un étui plastique en 2006.
-2008 à 2017[3]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Uniforme_de_l'Office_national_des_forêts</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uniforme_de_l%27Office_national_des_for%C3%AAts</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Anciens uniformes et équipements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2008 à 2017[3]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Képi à galonnage de commandant (IPEF 5-6, IDAE 1-3 et IAE 7-10) de l'Office national des forêts.
 			Képi à galonnage de sous-officiers (Technicien Opérationnel Forestier) de l'Office national des forêts.
 			Ingénieur de l'Agriculture et de l'Environnement (capitaine) de l'Office national des forêts en tenue Numéro 2 de représentation d'été (polo tilleul à bande institutionnelle sapin et pantalon de représentation cèdre) en 2009.
